--- a/ввод_исходных_данных.XLSX
+++ b/ввод_исходных_данных.XLSX
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0">
+    <comment ref="D34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0">
+    <comment ref="E35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>№</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>8-осный</t>
+  </si>
+  <si>
+    <t>оптимальная температура закрепления плети +-5 грудусов цельсия</t>
   </si>
 </sst>
 </file>
@@ -1454,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,7 +1550,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1809,7 +1812,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="D27" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,33 +1823,32 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1852,21 +1857,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33">
-        <v>3547</v>
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1874,16 +1877,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>55</v>
-      </c>
-      <c r="E34">
-        <v>51</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1891,10 +1888,16 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>55</v>
+      </c>
+      <c r="E35">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1902,7 +1905,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1910,10 +1916,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1921,7 +1924,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -1932,38 +1935,38 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1971,25 +1974,42 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ввод_исходных_данных.XLSX
+++ b/ввод_исходных_данных.XLSX
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>№</t>
   </si>
@@ -536,9 +536,6 @@
     <t>Кривая R=…..м</t>
   </si>
   <si>
-    <t>P65</t>
-  </si>
-  <si>
     <t>Дерево/Железобетон</t>
   </si>
   <si>
@@ -563,22 +560,25 @@
     <t>capacity, грузонапряженность</t>
   </si>
   <si>
-    <t>ВЛ80</t>
-  </si>
-  <si>
     <t>Редакция работы</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Казань</t>
-  </si>
-  <si>
-    <t>8-осный</t>
-  </si>
-  <si>
     <t>оптимальная температура закрепления плети +-5 грудусов цельсия</t>
+  </si>
+  <si>
+    <t>Тип подвижного состава</t>
+  </si>
+  <si>
+    <t>6-осный</t>
+  </si>
+  <si>
+    <t>Иваново</t>
+  </si>
+  <si>
+    <t>Р65</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,11 +1487,11 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1499,13 +1499,15 @@
       <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1521,7 +1523,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1536,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1546,11 +1548,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5">
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1560,11 +1562,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1637,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1651,7 +1653,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1661,11 +1663,11 @@
       <c r="D15" s="5">
         <v>1500</v>
       </c>
-      <c r="E15" s="5">
-        <v>1600</v>
+      <c r="E15" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1679,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1693,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1707,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="5">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5">
         <v>10</v>
@@ -1726,10 +1728,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5">
-        <v>17.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1737,10 +1739,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1812,7 +1814,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="5">
         <v>30</v>
